--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\SMP - SCHOLARSHIP MANAGEMENT PLATFORM\SMP Reports\Census Reports Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5F1B1E-75BE-4F27-BDFE-596BBC4F15C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="GeocodeResults (3)" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="398">
   <si>
     <t>19775 SE Gallberry Dr., Jupiter, FL, 33458</t>
   </si>
@@ -580,6 +579,9 @@
     <t>3594 Davenport Creek Court, Kissimmee, FL, 34746</t>
   </si>
   <si>
+    <t>ï»¿PK_Id</t>
+  </si>
+  <si>
     <t>Address1, City, Abbreviation, Zipcode</t>
   </si>
   <si>
@@ -1211,18 +1213,12 @@
   </si>
   <si>
     <t>3281 Marshfield Preserve Way, Kissimmee, FL, 34746</t>
-  </si>
-  <si>
-    <t>PK_Id</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1359,7 +1355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,14 +1535,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1661,21 +1651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1721,9 +1696,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2044,444 +2018,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4052</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1027</v>
+        <v>5265</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1076</v>
+        <v>3881</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1080</v>
+        <v>1461</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1081</v>
+        <v>3087</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1111</v>
+        <v>4171</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1124</v>
+        <v>4050</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1130</v>
+        <v>5816</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1137</v>
+        <v>4606</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1140</v>
+        <v>3515</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1146</v>
+        <v>1699</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1173</v>
+        <v>2787</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1179</v>
+        <v>2424</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1181</v>
+        <v>1455</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1190</v>
+        <v>2543</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15">
-        <v>641067858</v>
-      </c>
-      <c r="H15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>71</v>
-      </c>
-      <c r="K15">
-        <v>40120</v>
-      </c>
-      <c r="L15">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1211</v>
+        <v>2542</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1228</v>
+        <v>2784</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1235</v>
+        <v>1331</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1251</v>
+        <v>2541</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1253</v>
+        <v>4962</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1275</v>
+        <v>3994</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1283</v>
+        <v>5018</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23">
-        <v>116067555</v>
-      </c>
-      <c r="H23" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23">
-        <v>86</v>
-      </c>
-      <c r="K23">
-        <v>15001</v>
-      </c>
-      <c r="L23">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1292</v>
+        <v>4601</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1294</v>
+        <v>2429</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25">
-        <v>117997715</v>
-      </c>
-      <c r="H25" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25">
-        <v>12</v>
-      </c>
-      <c r="J25">
-        <v>71</v>
-      </c>
-      <c r="K25">
-        <v>10109</v>
-      </c>
-      <c r="L25">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1301</v>
+        <v>4981</v>
       </c>
       <c r="B26" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" t="s">
-        <v>341</v>
-      </c>
-      <c r="F26" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26">
-        <v>118005158</v>
-      </c>
-      <c r="H26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26">
-        <v>12</v>
-      </c>
-      <c r="J26">
-        <v>71</v>
-      </c>
-      <c r="K26">
-        <v>10111</v>
-      </c>
-      <c r="L26">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1323</v>
+        <v>3893</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1325</v>
+        <v>4740</v>
       </c>
       <c r="B28" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1331</v>
+        <v>1352</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1351</v>
       </c>
@@ -2492,23 +2355,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1352</v>
+        <v>1471</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1358</v>
+        <v>3097</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -2516,10 +2379,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1383</v>
+        <v>1228</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -2527,10 +2390,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1393</v>
+        <v>1467</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -2538,10 +2401,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1402</v>
+        <v>1587</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -2549,10 +2412,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1410</v>
+        <v>2554</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -2560,10 +2423,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1416</v>
+        <v>1585</v>
       </c>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -2571,10 +2434,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1437</v>
+        <v>2673</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -2582,21 +2445,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1445</v>
+        <v>1906</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1455</v>
+        <v>5028</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -2604,10 +2467,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1461</v>
+        <v>4853</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -2615,10 +2478,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1467</v>
+        <v>4732</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -2626,10 +2489,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1471</v>
+        <v>4612</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -2637,10 +2500,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1487</v>
+        <v>3645</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -2648,10 +2511,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1488</v>
+        <v>4735</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -2659,32 +2522,32 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1502</v>
+        <v>5825</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1503</v>
+        <v>4615</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1508</v>
+        <v>5283</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -2692,10 +2555,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1514</v>
+        <v>4194</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -2703,21 +2566,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1522</v>
+        <v>4074</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1533</v>
+        <v>5169</v>
       </c>
       <c r="B51" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -2725,10 +2588,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1536</v>
+        <v>4993</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -2736,10 +2599,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1539</v>
+        <v>3420</v>
       </c>
       <c r="B53" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -2747,10 +2610,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1543</v>
+        <v>2693</v>
       </c>
       <c r="B54" t="s">
-        <v>343</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -2758,10 +2621,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1546</v>
+        <v>3540</v>
       </c>
       <c r="B55" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -2769,10 +2632,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1566</v>
+        <v>2692</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -2780,10 +2643,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1571</v>
+        <v>4190</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -2791,10 +2654,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1585</v>
+        <v>4749</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -2802,10 +2665,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1587</v>
+        <v>5839</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -2813,10 +2676,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1596</v>
+        <v>2448</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -2824,10 +2687,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1598</v>
+        <v>1358</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -2835,10 +2698,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1601</v>
+        <v>1235</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -2846,10 +2709,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -2857,10 +2720,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1621</v>
+        <v>1596</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -2868,10 +2731,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1633</v>
+        <v>1111</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -2879,10 +2742,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1636</v>
+        <v>5038</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -2890,32 +2753,32 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1648</v>
+        <v>4622</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1650</v>
+        <v>1916</v>
       </c>
       <c r="B68" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1654</v>
+        <v>4746</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -2923,10 +2786,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1655</v>
+        <v>4504</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -2934,10 +2797,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1673</v>
+        <v>4869</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -2945,10 +2808,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1699</v>
+        <v>4627</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -2956,10 +2819,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1700</v>
+        <v>1911</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -2967,10 +2830,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1709</v>
+        <v>3791</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -2978,21 +2841,21 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1744</v>
+        <v>4520</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1770</v>
+        <v>1253</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -3000,21 +2863,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1771</v>
+        <v>1130</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1792</v>
+        <v>1251</v>
       </c>
       <c r="B78" t="s">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -3022,10 +2885,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1793</v>
+        <v>4080</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -3033,10 +2896,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1804</v>
+        <v>5170</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -3044,10 +2907,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1811</v>
+        <v>3305</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -3055,21 +2918,21 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1822</v>
+        <v>3546</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1831</v>
+        <v>3425</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -3077,21 +2940,21 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1838</v>
+        <v>3545</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1851</v>
+        <v>1488</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -3099,10 +2962,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1856</v>
+        <v>1487</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -3110,21 +2973,21 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1867</v>
+        <v>1124</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1878</v>
+        <v>4753</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -3132,10 +2995,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1879</v>
+        <v>5843</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -3143,10 +3006,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1885</v>
+        <v>1927</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -3154,10 +3017,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1891</v>
+        <v>4633</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -3165,21 +3028,21 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1906</v>
+        <v>4634</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1911</v>
+        <v>1804</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -3187,10 +3050,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1916</v>
+        <v>4999</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -3198,10 +3061,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1927</v>
+        <v>5847</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -3209,10 +3072,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1935</v>
+        <v>4099</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -3220,10 +3083,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1936</v>
+        <v>4773</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -3231,21 +3094,21 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1937</v>
+        <v>5741</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1938</v>
+        <v>4894</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -3253,10 +3116,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1948</v>
+        <v>1383</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -3264,10 +3127,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1950</v>
+        <v>1140</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -3275,10 +3138,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1969</v>
+        <v>1811</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -3286,21 +3149,21 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1970</v>
+        <v>5619</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1973</v>
+        <v>2107</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -3308,21 +3171,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1974</v>
+        <v>4409</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1987</v>
+        <v>3438</v>
       </c>
       <c r="B106" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -3330,10 +3193,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1989</v>
+        <v>1137</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -3341,10 +3204,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2001</v>
+        <v>2102</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -3352,10 +3215,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2011</v>
+        <v>5853</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -3363,21 +3226,21 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2046</v>
+        <v>1938</v>
       </c>
       <c r="B110" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2055</v>
+        <v>1937</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -3385,10 +3248,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2084</v>
+        <v>1936</v>
       </c>
       <c r="B112" t="s">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -3396,10 +3259,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2102</v>
+        <v>1935</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -3407,10 +3270,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2107</v>
+        <v>4526</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -3418,32 +3281,32 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2109</v>
+        <v>5859</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B116" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2127</v>
+        <v>4407</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -3451,10 +3314,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>2369</v>
+        <v>3690</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -3462,21 +3325,21 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2377</v>
+        <v>3695</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2382</v>
+        <v>4421</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -3484,10 +3347,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2383</v>
+        <v>1275</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -3495,10 +3358,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>2397</v>
+        <v>2001</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -3506,10 +3369,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2400</v>
+        <v>3450</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -3517,10 +3380,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2401</v>
+        <v>1393</v>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -3528,10 +3391,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2408</v>
+        <v>1822</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -3539,10 +3402,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2409</v>
+        <v>3328</v>
       </c>
       <c r="B126" t="s">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -3550,10 +3413,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2424</v>
+        <v>1700</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -3561,186 +3424,240 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2429</v>
+        <v>2910</v>
       </c>
       <c r="B128" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2448</v>
+        <v>1027</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
+        <v>3566</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1146</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2596</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2112</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4411</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" t="s">
+        <v>139</v>
+      </c>
+      <c r="G134">
+        <v>115983966</v>
+      </c>
+      <c r="H134" t="s">
+        <v>140</v>
+      </c>
+      <c r="I134">
+        <v>12</v>
+      </c>
+      <c r="J134">
+        <v>86</v>
+      </c>
+      <c r="K134">
+        <v>8209</v>
+      </c>
+      <c r="L134">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1709</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5743</v>
+      </c>
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5501</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4776</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1948</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5866</v>
+      </c>
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4536</v>
+      </c>
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2011</v>
+      </c>
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1283</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143" t="s">
+        <v>137</v>
+      </c>
+      <c r="E143" t="s">
+        <v>150</v>
+      </c>
+      <c r="F143" t="s">
+        <v>151</v>
+      </c>
+      <c r="G143">
+        <v>116067555</v>
+      </c>
+      <c r="H143" t="s">
+        <v>140</v>
+      </c>
+      <c r="I143">
+        <v>12</v>
+      </c>
+      <c r="J143">
+        <v>86</v>
+      </c>
+      <c r="K143">
+        <v>15001</v>
+      </c>
+      <c r="L143">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>2493</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B144" t="s">
         <v>152</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>2498</v>
-      </c>
-      <c r="B131" t="s">
-        <v>183</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>2500</v>
-      </c>
-      <c r="B132" t="s">
-        <v>307</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>2517</v>
-      </c>
-      <c r="B133" t="s">
-        <v>350</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>2523</v>
-      </c>
-      <c r="B134" t="s">
-        <v>362</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>2531</v>
-      </c>
-      <c r="B135" t="s">
-        <v>394</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>2541</v>
-      </c>
-      <c r="B136" t="s">
-        <v>21</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>2542</v>
-      </c>
-      <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>2543</v>
-      </c>
-      <c r="B138" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>2554</v>
-      </c>
-      <c r="B139" t="s">
-        <v>37</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>2596</v>
-      </c>
-      <c r="B140" t="s">
-        <v>133</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>2673</v>
-      </c>
-      <c r="B141" t="s">
-        <v>39</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>2692</v>
-      </c>
-      <c r="B142" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>2693</v>
-      </c>
-      <c r="B143" t="s">
-        <v>55</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>2726</v>
-      </c>
-      <c r="B144" t="s">
-        <v>264</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -3748,10 +3665,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2737</v>
+        <v>1831</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
@@ -3759,10 +3676,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2739</v>
+        <v>2127</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -3770,48 +3687,21 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2743</v>
+        <v>2369</v>
       </c>
       <c r="B147" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="C147" t="s">
-        <v>136</v>
-      </c>
-      <c r="D147" t="s">
-        <v>137</v>
-      </c>
-      <c r="E147" t="s">
-        <v>303</v>
-      </c>
-      <c r="F147" t="s">
-        <v>304</v>
-      </c>
-      <c r="G147">
-        <v>114708923</v>
-      </c>
-      <c r="H147" t="s">
-        <v>140</v>
-      </c>
-      <c r="I147">
-        <v>12</v>
-      </c>
-      <c r="J147">
-        <v>11</v>
-      </c>
-      <c r="K147">
-        <v>50308</v>
-      </c>
-      <c r="L147">
-        <v>1011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2748</v>
+        <v>1950</v>
       </c>
       <c r="B148" t="s">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
@@ -3819,10 +3709,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>2784</v>
+        <v>5634</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
@@ -3830,10 +3720,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2787</v>
+        <v>1838</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -3841,21 +3731,48 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>2817</v>
+        <v>5759</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C151" t="s">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D151" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" t="s">
+        <v>161</v>
+      </c>
+      <c r="F151" t="s">
+        <v>162</v>
+      </c>
+      <c r="G151">
+        <v>120429355</v>
+      </c>
+      <c r="H151" t="s">
+        <v>163</v>
+      </c>
+      <c r="I151">
+        <v>12</v>
+      </c>
+      <c r="J151">
+        <v>85</v>
+      </c>
+      <c r="K151">
+        <v>502</v>
+      </c>
+      <c r="L151">
+        <v>1008</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>2820</v>
+        <v>3112</v>
       </c>
       <c r="B152" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
@@ -3863,10 +3780,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2836</v>
+        <v>3354</v>
       </c>
       <c r="B153" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
@@ -3874,10 +3791,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2845</v>
+        <v>3353</v>
       </c>
       <c r="B154" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -3885,10 +3802,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2859</v>
+        <v>3231</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
@@ -3896,10 +3813,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>2867</v>
+        <v>1173</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
@@ -3907,10 +3824,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>2868</v>
+        <v>2383</v>
       </c>
       <c r="B157" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
@@ -3918,21 +3835,48 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2871</v>
+        <v>1294</v>
       </c>
       <c r="B158" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D158" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" t="s">
+        <v>171</v>
+      </c>
+      <c r="F158" t="s">
+        <v>172</v>
+      </c>
+      <c r="G158">
+        <v>117997715</v>
+      </c>
+      <c r="H158" t="s">
+        <v>140</v>
+      </c>
+      <c r="I158">
+        <v>12</v>
+      </c>
+      <c r="J158">
+        <v>71</v>
+      </c>
+      <c r="K158">
+        <v>10109</v>
+      </c>
+      <c r="L158">
+        <v>1046</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2873</v>
+        <v>2382</v>
       </c>
       <c r="B159" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
@@ -3940,32 +3884,32 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2910</v>
+        <v>1292</v>
       </c>
       <c r="B160" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2932</v>
+        <v>3229</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>2952</v>
+        <v>1601</v>
       </c>
       <c r="B162" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
@@ -3973,32 +3917,32 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2953</v>
+        <v>2932</v>
       </c>
       <c r="B163" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C163" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2966</v>
+        <v>3469</v>
       </c>
       <c r="B164" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2968</v>
+        <v>3226</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
@@ -4006,21 +3950,21 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2971</v>
+        <v>3105</v>
       </c>
       <c r="B166" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>2975</v>
+        <v>3346</v>
       </c>
       <c r="B167" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
@@ -4028,21 +3972,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2977</v>
+        <v>2377</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2983</v>
+        <v>2498</v>
       </c>
       <c r="B169" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -4050,10 +3994,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2986</v>
+        <v>4796</v>
       </c>
       <c r="B170" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -4061,21 +4005,21 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2987</v>
+        <v>2817</v>
       </c>
       <c r="B171" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>2993</v>
+      <c r="A172" t="s">
+        <v>186</v>
       </c>
       <c r="B172" t="s">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -4083,10 +4027,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>3003</v>
+        <v>4558</v>
       </c>
       <c r="B173" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
@@ -4094,10 +4038,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>3005</v>
+        <v>1969</v>
       </c>
       <c r="B174" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
@@ -4105,32 +4049,32 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3009</v>
+        <v>5420</v>
       </c>
       <c r="B175" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>3019</v>
+        <v>5421</v>
       </c>
       <c r="B176" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="C176" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3024</v>
+        <v>5422</v>
       </c>
       <c r="B177" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
@@ -4138,10 +4082,10 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>3036</v>
+        <v>2397</v>
       </c>
       <c r="B178" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
@@ -4149,21 +4093,48 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>3062</v>
+        <v>3364</v>
       </c>
       <c r="B179" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="C179" t="s">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D179" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" t="s">
+        <v>195</v>
+      </c>
+      <c r="F179" t="s">
+        <v>196</v>
+      </c>
+      <c r="G179">
+        <v>104525601</v>
+      </c>
+      <c r="H179" t="s">
+        <v>163</v>
+      </c>
+      <c r="I179">
+        <v>12</v>
+      </c>
+      <c r="J179">
+        <v>57</v>
+      </c>
+      <c r="K179">
+        <v>6300</v>
+      </c>
+      <c r="L179">
+        <v>1013</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>3074</v>
+        <v>1181</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>197</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
@@ -4171,10 +4142,10 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3087</v>
+        <v>1974</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -4182,10 +4153,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3097</v>
+        <v>1610</v>
       </c>
       <c r="B182" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -4193,21 +4164,21 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3105</v>
+        <v>1973</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3112</v>
+        <v>2820</v>
       </c>
       <c r="B184" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -4215,10 +4186,10 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3127</v>
+        <v>1851</v>
       </c>
       <c r="B185" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
@@ -4226,10 +4197,10 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3129</v>
+        <v>3357</v>
       </c>
       <c r="B186" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -4237,59 +4208,32 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3133</v>
+        <v>1179</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C187" t="s">
-        <v>136</v>
-      </c>
-      <c r="D187" t="s">
-        <v>160</v>
-      </c>
-      <c r="E187" t="s">
-        <v>217</v>
-      </c>
-      <c r="F187" t="s">
-        <v>218</v>
-      </c>
-      <c r="G187">
-        <v>116300379</v>
-      </c>
-      <c r="H187" t="s">
-        <v>140</v>
-      </c>
-      <c r="I187">
-        <v>12</v>
-      </c>
-      <c r="J187">
-        <v>86</v>
-      </c>
-      <c r="K187">
-        <v>8425</v>
-      </c>
-      <c r="L187">
-        <v>1004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>3144</v>
+        <v>1970</v>
       </c>
       <c r="B188" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3146</v>
+        <v>5533</v>
       </c>
       <c r="B189" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
@@ -4297,10 +4241,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>3148</v>
+        <v>4202</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
@@ -4308,10 +4252,10 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3152</v>
+        <v>4446</v>
       </c>
       <c r="B191" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
@@ -4319,411 +4263,438 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3155</v>
+        <v>5779</v>
       </c>
       <c r="B192" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3159</v>
+        <v>1856</v>
       </c>
       <c r="B193" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3165</v>
+        <v>4209</v>
       </c>
       <c r="B194" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3175</v>
+        <v>1190</v>
       </c>
       <c r="B195" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="C195" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D195" t="s">
+        <v>160</v>
+      </c>
+      <c r="E195" t="s">
+        <v>213</v>
+      </c>
+      <c r="F195" t="s">
+        <v>214</v>
+      </c>
+      <c r="G195">
+        <v>641067858</v>
+      </c>
+      <c r="H195" t="s">
+        <v>140</v>
+      </c>
+      <c r="I195">
+        <v>12</v>
+      </c>
+      <c r="J195">
+        <v>71</v>
+      </c>
+      <c r="K195">
+        <v>40120</v>
+      </c>
+      <c r="L195">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>3179</v>
+        <v>4581</v>
       </c>
       <c r="B196" t="s">
-        <v>366</v>
+        <v>215</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>3182</v>
+        <v>3255</v>
       </c>
       <c r="B197" t="s">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>3185</v>
+        <v>3133</v>
       </c>
       <c r="B198" t="s">
-        <v>357</v>
+        <v>217</v>
       </c>
       <c r="C198" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D198" t="s">
+        <v>160</v>
+      </c>
+      <c r="E198" t="s">
+        <v>218</v>
+      </c>
+      <c r="F198" t="s">
+        <v>219</v>
+      </c>
+      <c r="G198">
+        <v>116300379</v>
+      </c>
+      <c r="H198" t="s">
+        <v>140</v>
+      </c>
+      <c r="I198">
+        <v>12</v>
+      </c>
+      <c r="J198">
+        <v>86</v>
+      </c>
+      <c r="K198">
+        <v>8425</v>
+      </c>
+      <c r="L198">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>3189</v>
+        <v>1076</v>
       </c>
       <c r="B199" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>3190</v>
+        <v>3493</v>
       </c>
       <c r="B200" t="s">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="C200" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1503</v>
+      </c>
+      <c r="B201" t="s">
+        <v>222</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1987</v>
+      </c>
+      <c r="B202" t="s">
+        <v>223</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1502</v>
+      </c>
+      <c r="B203" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>3226</v>
-      </c>
-      <c r="B201" t="s">
-        <v>179</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>3229</v>
-      </c>
-      <c r="B202" t="s">
-        <v>175</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>3231</v>
-      </c>
-      <c r="B203" t="s">
-        <v>167</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>3255</v>
+        <v>1744</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>3268</v>
+        <v>3804</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3291</v>
+        <v>3009</v>
       </c>
       <c r="B206" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="C206" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>3305</v>
+        <v>3129</v>
       </c>
       <c r="B207" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>3328</v>
+        <v>2953</v>
       </c>
       <c r="B208" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>3346</v>
+        <v>1621</v>
       </c>
       <c r="B209" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>3353</v>
+        <v>2952</v>
       </c>
       <c r="B210" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3354</v>
+        <v>3127</v>
       </c>
       <c r="B211" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>3357</v>
+        <v>3005</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>3364</v>
+        <v>3809</v>
       </c>
       <c r="B213" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C213" t="s">
-        <v>136</v>
-      </c>
-      <c r="D213" t="s">
-        <v>137</v>
-      </c>
-      <c r="E213" t="s">
-        <v>194</v>
-      </c>
-      <c r="F213" t="s">
-        <v>195</v>
-      </c>
-      <c r="G213">
-        <v>104525601</v>
-      </c>
-      <c r="H213" t="s">
-        <v>163</v>
-      </c>
-      <c r="I213">
-        <v>12</v>
-      </c>
-      <c r="J213">
-        <v>57</v>
-      </c>
-      <c r="K213">
-        <v>6300</v>
-      </c>
-      <c r="L213">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>3393</v>
+        <v>3003</v>
       </c>
       <c r="B214" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>3420</v>
+        <v>4455</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>3425</v>
+        <v>5303</v>
       </c>
       <c r="B216" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>3438</v>
+        <v>5425</v>
       </c>
       <c r="B217" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>3450</v>
+        <v>1508</v>
       </c>
       <c r="B218" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>3469</v>
+        <v>1989</v>
       </c>
       <c r="B219" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>3493</v>
+        <v>2836</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>3500</v>
+        <v>3922</v>
       </c>
       <c r="B221" t="s">
-        <v>392</v>
+        <v>242</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>3515</v>
+        <v>1867</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="C222" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>3540</v>
+        <v>3923</v>
       </c>
       <c r="B223" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>3545</v>
+        <v>1080</v>
       </c>
       <c r="B224" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>3546</v>
+        <v>4594</v>
       </c>
       <c r="B225" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>3566</v>
+        <v>5564</v>
       </c>
       <c r="B226" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
@@ -4731,10 +4702,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>3645</v>
+        <v>5443</v>
       </c>
       <c r="B227" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
@@ -4742,10 +4713,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>3690</v>
+        <v>5444</v>
       </c>
       <c r="B228" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
@@ -4753,10 +4724,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>3695</v>
+        <v>3024</v>
       </c>
       <c r="B229" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
@@ -4764,10 +4735,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>3706</v>
+        <v>2055</v>
       </c>
       <c r="B230" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
@@ -4775,10 +4746,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3719</v>
+        <v>3144</v>
       </c>
       <c r="B231" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
@@ -4786,10 +4757,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>3726</v>
+        <v>1081</v>
       </c>
       <c r="B232" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
@@ -4797,10 +4768,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>3749</v>
+        <v>3935</v>
       </c>
       <c r="B233" t="s">
-        <v>386</v>
+        <v>254</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
@@ -4808,10 +4779,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>3791</v>
+        <v>1514</v>
       </c>
       <c r="B234" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
@@ -4819,10 +4790,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3804</v>
+        <v>2845</v>
       </c>
       <c r="B235" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -4830,21 +4801,21 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>3809</v>
+        <v>2966</v>
       </c>
       <c r="B236" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C236" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>3843</v>
+        <v>1633</v>
       </c>
       <c r="B237" t="s">
-        <v>349</v>
+        <v>258</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -4852,10 +4823,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>3847</v>
+        <v>3019</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
@@ -4863,251 +4834,197 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>3851</v>
+        <v>2046</v>
       </c>
       <c r="B239" t="s">
-        <v>369</v>
+        <v>260</v>
       </c>
       <c r="C239" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>3855</v>
+        <v>5797</v>
       </c>
       <c r="B240" t="s">
-        <v>374</v>
+        <v>261</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>3860</v>
+        <v>4469</v>
       </c>
       <c r="B241" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="C241" t="s">
-        <v>136</v>
-      </c>
-      <c r="D241" t="s">
-        <v>160</v>
-      </c>
-      <c r="E241" t="s">
-        <v>354</v>
-      </c>
-      <c r="F241" t="s">
-        <v>355</v>
-      </c>
-      <c r="G241">
-        <v>115504076</v>
-      </c>
-      <c r="H241" t="s">
-        <v>140</v>
-      </c>
-      <c r="I241">
-        <v>12</v>
-      </c>
-      <c r="J241">
-        <v>99</v>
-      </c>
-      <c r="K241">
-        <v>5942</v>
-      </c>
-      <c r="L241">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>3881</v>
+        <v>2968</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>3893</v>
+        <v>1879</v>
       </c>
       <c r="B243" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="C243" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>3922</v>
+        <v>2726</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>3923</v>
+        <v>1636</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>3935</v>
+        <v>1878</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>3971</v>
+        <v>1770</v>
       </c>
       <c r="B247" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>3975</v>
+        <v>1891</v>
       </c>
       <c r="B248" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>3990</v>
+        <v>3155</v>
       </c>
       <c r="B249" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>3994</v>
+        <v>3152</v>
       </c>
       <c r="B250" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4021</v>
+        <v>3393</v>
       </c>
       <c r="B251" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="C251" t="s">
-        <v>136</v>
-      </c>
-      <c r="D251" t="s">
-        <v>137</v>
-      </c>
-      <c r="E251" t="s">
-        <v>328</v>
-      </c>
-      <c r="F251" t="s">
-        <v>329</v>
-      </c>
-      <c r="G251">
-        <v>116044022</v>
-      </c>
-      <c r="H251" t="s">
-        <v>163</v>
-      </c>
-      <c r="I251">
-        <v>12</v>
-      </c>
-      <c r="J251">
-        <v>86</v>
-      </c>
-      <c r="K251">
-        <v>9704</v>
-      </c>
-      <c r="L251">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4022</v>
+        <v>2977</v>
       </c>
       <c r="B252" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>4028</v>
+        <v>1402</v>
       </c>
       <c r="B253" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="C253" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4044</v>
+        <v>3706</v>
       </c>
       <c r="B254" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>4047</v>
+        <v>2975</v>
       </c>
       <c r="B255" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="C255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>4050</v>
+        <v>1522</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
@@ -5115,10 +5032,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>4052</v>
+        <v>1885</v>
       </c>
       <c r="B257" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
@@ -5126,21 +5043,21 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>4074</v>
+        <v>3148</v>
       </c>
       <c r="B258" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>4080</v>
+        <v>3268</v>
       </c>
       <c r="B259" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
@@ -5148,10 +5065,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>4099</v>
+        <v>2971</v>
       </c>
       <c r="B260" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
@@ -5159,10 +5076,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>4115</v>
+        <v>3146</v>
       </c>
       <c r="B261" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
@@ -5170,10 +5087,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>4116</v>
+        <v>5325</v>
       </c>
       <c r="B262" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
@@ -5181,10 +5098,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>4125</v>
+        <v>4115</v>
       </c>
       <c r="B263" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
@@ -5192,10 +5109,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>4137</v>
+        <v>5204</v>
       </c>
       <c r="B264" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
@@ -5203,10 +5120,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>4140</v>
+        <v>4116</v>
       </c>
       <c r="B265" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
@@ -5214,10 +5131,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>4143</v>
+        <v>2739</v>
       </c>
       <c r="B266" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
@@ -5225,21 +5142,21 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>4162</v>
+        <v>5208</v>
       </c>
       <c r="B267" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>4171</v>
+        <v>2859</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="C268" t="s">
         <v>1</v>
@@ -5247,10 +5164,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>4190</v>
+        <v>4912</v>
       </c>
       <c r="B269" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="C269" t="s">
         <v>1</v>
@@ -5258,10 +5175,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>4194</v>
+        <v>2737</v>
       </c>
       <c r="B270" t="s">
-        <v>50</v>
+        <v>291</v>
       </c>
       <c r="C270" t="s">
         <v>1</v>
@@ -5269,10 +5186,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>4202</v>
+        <v>1648</v>
       </c>
       <c r="B271" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
@@ -5280,10 +5197,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>4209</v>
+        <v>4491</v>
       </c>
       <c r="B272" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="C272" t="s">
         <v>1</v>
@@ -5291,32 +5208,32 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>4390</v>
+        <v>5221</v>
       </c>
       <c r="B273" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="C273" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>4393</v>
+        <v>5345</v>
       </c>
       <c r="B274" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="C274" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>4407</v>
+        <v>3165</v>
       </c>
       <c r="B275" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
@@ -5324,70 +5241,43 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>4409</v>
+        <v>1536</v>
       </c>
       <c r="B276" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="C276" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>4411</v>
+        <v>2867</v>
       </c>
       <c r="B277" t="s">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="C277" t="s">
-        <v>136</v>
-      </c>
-      <c r="D277" t="s">
-        <v>137</v>
-      </c>
-      <c r="E277" t="s">
-        <v>138</v>
-      </c>
-      <c r="F277" t="s">
-        <v>139</v>
-      </c>
-      <c r="G277">
-        <v>115983966</v>
-      </c>
-      <c r="H277" t="s">
-        <v>140</v>
-      </c>
-      <c r="I277">
-        <v>12</v>
-      </c>
-      <c r="J277">
-        <v>86</v>
-      </c>
-      <c r="K277">
-        <v>8209</v>
-      </c>
-      <c r="L277">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>4421</v>
+        <v>2987</v>
       </c>
       <c r="B278" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="C278" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>4446</v>
+        <v>4805</v>
       </c>
       <c r="B279" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="C279" t="s">
         <v>1</v>
@@ -5395,10 +5285,10 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>4455</v>
+        <v>1655</v>
       </c>
       <c r="B280" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="C280" t="s">
         <v>1</v>
@@ -5406,32 +5296,59 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>4469</v>
+        <v>2986</v>
       </c>
       <c r="B281" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>4489</v>
+        <v>2743</v>
       </c>
       <c r="B282" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C282" t="s">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D282" t="s">
+        <v>137</v>
+      </c>
+      <c r="E282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F282" t="s">
+        <v>305</v>
+      </c>
+      <c r="G282">
+        <v>114708923</v>
+      </c>
+      <c r="H282" t="s">
+        <v>140</v>
+      </c>
+      <c r="I282">
+        <v>12</v>
+      </c>
+      <c r="J282">
+        <v>11</v>
+      </c>
+      <c r="K282">
+        <v>50308</v>
+      </c>
+      <c r="L282">
+        <v>1011</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>4491</v>
+        <v>1533</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C283" t="s">
         <v>1</v>
@@ -5439,10 +5356,10 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>4504</v>
+        <v>1654</v>
       </c>
       <c r="B284" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="C284" t="s">
         <v>1</v>
@@ -5450,21 +5367,21 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>4520</v>
+        <v>2500</v>
       </c>
       <c r="B285" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="C285" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>4526</v>
+        <v>3719</v>
       </c>
       <c r="B286" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="C286" t="s">
         <v>1</v>
@@ -5472,10 +5389,10 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>4536</v>
+        <v>3159</v>
       </c>
       <c r="B287" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
@@ -5483,10 +5400,10 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>4558</v>
+        <v>1410</v>
       </c>
       <c r="B288" t="s">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="C288" t="s">
         <v>1</v>
@@ -5494,10 +5411,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>4581</v>
+        <v>2983</v>
       </c>
       <c r="B289" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="C289" t="s">
         <v>1</v>
@@ -5505,10 +5422,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>4594</v>
+        <v>1771</v>
       </c>
       <c r="B290" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
@@ -5516,32 +5433,32 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>4601</v>
+        <v>3036</v>
       </c>
       <c r="B291" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="C291" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>4606</v>
+        <v>1650</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="C292" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>4612</v>
+        <v>4125</v>
       </c>
       <c r="B293" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="C293" t="s">
         <v>1</v>
@@ -5549,32 +5466,32 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>4615</v>
+        <v>4489</v>
       </c>
       <c r="B294" t="s">
-        <v>48</v>
+        <v>317</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>4622</v>
+        <v>5458</v>
       </c>
       <c r="B295" t="s">
-        <v>68</v>
+        <v>318</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4627</v>
+        <v>1539</v>
       </c>
       <c r="B296" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="C296" t="s">
         <v>1</v>
@@ -5582,21 +5499,21 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4633</v>
+        <v>4801</v>
       </c>
       <c r="B297" t="s">
-        <v>92</v>
+        <v>320</v>
       </c>
       <c r="C297" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>4634</v>
+        <v>2748</v>
       </c>
       <c r="B298" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="C298" t="s">
         <v>1</v>
@@ -5604,10 +5521,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>4732</v>
+        <v>4923</v>
       </c>
       <c r="B299" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C299" t="s">
         <v>1</v>
@@ -5615,10 +5532,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>4735</v>
+        <v>2868</v>
       </c>
       <c r="B300" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="C300" t="s">
         <v>1</v>
@@ -5626,10 +5543,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>4740</v>
+        <v>1416</v>
       </c>
       <c r="B301" t="s">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="C301" t="s">
         <v>1</v>
@@ -5637,10 +5554,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>4746</v>
+        <v>3291</v>
       </c>
       <c r="B302" t="s">
-        <v>70</v>
+        <v>325</v>
       </c>
       <c r="C302" t="s">
         <v>1</v>
@@ -5648,10 +5565,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4749</v>
+        <v>4140</v>
       </c>
       <c r="B303" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="C303" t="s">
         <v>1</v>
@@ -5659,373 +5576,454 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>4753</v>
+        <v>5472</v>
       </c>
       <c r="B304" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="C304" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4773</v>
+        <v>4021</v>
       </c>
       <c r="B305" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="C305" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D305" t="s">
+        <v>137</v>
+      </c>
+      <c r="E305" t="s">
+        <v>329</v>
+      </c>
+      <c r="F305" t="s">
+        <v>330</v>
+      </c>
+      <c r="G305">
+        <v>116044022</v>
+      </c>
+      <c r="H305" t="s">
+        <v>163</v>
+      </c>
+      <c r="I305">
+        <v>12</v>
+      </c>
+      <c r="J305">
+        <v>86</v>
+      </c>
+      <c r="K305">
+        <v>9704</v>
+      </c>
+      <c r="L305">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>4776</v>
+        <v>4143</v>
       </c>
       <c r="B306" t="s">
-        <v>144</v>
+        <v>331</v>
       </c>
       <c r="C306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>4796</v>
+        <v>4022</v>
       </c>
       <c r="B307" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="C307" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>4801</v>
+        <v>5595</v>
       </c>
       <c r="B308" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C308" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>5474</v>
+      </c>
+      <c r="B309" t="s">
+        <v>334</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1792</v>
+      </c>
+      <c r="B310" t="s">
+        <v>335</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>3175</v>
+      </c>
+      <c r="B311" t="s">
+        <v>336</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2084</v>
+      </c>
+      <c r="B312" t="s">
+        <v>337</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>3847</v>
+      </c>
+      <c r="B313" t="s">
+        <v>338</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>3726</v>
+      </c>
+      <c r="B314" t="s">
+        <v>339</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1546</v>
+      </c>
+      <c r="B315" t="s">
+        <v>340</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1301</v>
+      </c>
+      <c r="B316" t="s">
+        <v>341</v>
+      </c>
+      <c r="C316" t="s">
+        <v>136</v>
+      </c>
+      <c r="D316" t="s">
+        <v>137</v>
+      </c>
+      <c r="E316" t="s">
+        <v>342</v>
+      </c>
+      <c r="F316" t="s">
+        <v>343</v>
+      </c>
+      <c r="G316">
+        <v>118005158</v>
+      </c>
+      <c r="H316" t="s">
+        <v>140</v>
+      </c>
+      <c r="I316">
+        <v>12</v>
+      </c>
+      <c r="J316">
+        <v>71</v>
+      </c>
+      <c r="K316">
+        <v>10111</v>
+      </c>
+      <c r="L316">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1543</v>
+      </c>
+      <c r="B317" t="s">
+        <v>344</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2873</v>
+      </c>
+      <c r="B318" t="s">
+        <v>345</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2993</v>
+      </c>
+      <c r="B319" t="s">
+        <v>346</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2871</v>
+      </c>
+      <c r="B320" t="s">
+        <v>347</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>5346</v>
+      </c>
+      <c r="B321" t="s">
+        <v>348</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>4137</v>
+      </c>
+      <c r="B322" t="s">
+        <v>349</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>3843</v>
+      </c>
+      <c r="B323" t="s">
+        <v>350</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2517</v>
+      </c>
+      <c r="B324" t="s">
+        <v>351</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>4393</v>
+      </c>
+      <c r="B325" t="s">
+        <v>352</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>5241</v>
+      </c>
+      <c r="B326" t="s">
+        <v>353</v>
+      </c>
+      <c r="C326" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>4805</v>
-      </c>
-      <c r="B309" t="s">
-        <v>299</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>4832</v>
-      </c>
-      <c r="B310" t="s">
-        <v>395</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>4834</v>
-      </c>
-      <c r="B311" t="s">
-        <v>396</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>4853</v>
-      </c>
-      <c r="B312" t="s">
-        <v>42</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>4869</v>
-      </c>
-      <c r="B313" t="s">
-        <v>72</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>4894</v>
-      </c>
-      <c r="B314" t="s">
-        <v>100</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>4912</v>
-      </c>
-      <c r="B315" t="s">
-        <v>289</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>4923</v>
-      </c>
-      <c r="B316" t="s">
-        <v>321</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>4962</v>
-      </c>
-      <c r="B317" t="s">
-        <v>22</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>4981</v>
-      </c>
-      <c r="B318" t="s">
-        <v>27</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>4993</v>
-      </c>
-      <c r="B319" t="s">
-        <v>53</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>4999</v>
-      </c>
-      <c r="B320" t="s">
-        <v>95</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>5012</v>
-      </c>
-      <c r="B321" t="s">
-        <v>379</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>5018</v>
-      </c>
-      <c r="B322" t="s">
-        <v>24</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>5028</v>
-      </c>
-      <c r="B323" t="s">
-        <v>41</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>5038</v>
-      </c>
-      <c r="B324" t="s">
-        <v>67</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>5169</v>
-      </c>
-      <c r="B325" t="s">
-        <v>52</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>5170</v>
-      </c>
-      <c r="B326" t="s">
-        <v>81</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>5204</v>
+        <v>3860</v>
       </c>
       <c r="B327" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="C327" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D327" t="s">
+        <v>160</v>
+      </c>
+      <c r="E327" t="s">
+        <v>355</v>
+      </c>
+      <c r="F327" t="s">
+        <v>356</v>
+      </c>
+      <c r="G327">
+        <v>115504076</v>
+      </c>
+      <c r="H327" t="s">
+        <v>140</v>
+      </c>
+      <c r="I327">
+        <v>12</v>
+      </c>
+      <c r="J327">
+        <v>99</v>
+      </c>
+      <c r="K327">
+        <v>5942</v>
+      </c>
+      <c r="L327">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>5208</v>
+        <v>3189</v>
       </c>
       <c r="B328" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="C328" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>5221</v>
+        <v>3185</v>
       </c>
       <c r="B329" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="C329" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>5239</v>
+        <v>4390</v>
       </c>
       <c r="B330" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C330" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>5241</v>
+        <v>3062</v>
       </c>
       <c r="B331" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C331" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>5265</v>
+        <v>3182</v>
       </c>
       <c r="B332" t="s">
-        <v>2</v>
+        <v>361</v>
       </c>
       <c r="C332" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>5283</v>
+        <v>1437</v>
       </c>
       <c r="B333" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
       <c r="C333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>5303</v>
+        <v>2523</v>
       </c>
       <c r="B334" t="s">
-        <v>236</v>
+        <v>363</v>
       </c>
       <c r="C334" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>5325</v>
+        <v>2401</v>
       </c>
       <c r="B335" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="C335" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>5345</v>
+        <v>2400</v>
       </c>
       <c r="B336" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="C336" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>5346</v>
+        <v>1673</v>
       </c>
       <c r="B337" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C337" t="s">
         <v>1</v>
@@ -6033,10 +6031,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>5420</v>
+        <v>3179</v>
       </c>
       <c r="B338" t="s">
-        <v>189</v>
+        <v>367</v>
       </c>
       <c r="C338" t="s">
         <v>1</v>
@@ -6044,21 +6042,21 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>5421</v>
+        <v>1793</v>
       </c>
       <c r="B339" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="C339" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>5422</v>
+        <v>3971</v>
       </c>
       <c r="B340" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="C340" t="s">
         <v>1</v>
@@ -6066,10 +6064,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>5425</v>
+        <v>3851</v>
       </c>
       <c r="B341" t="s">
-        <v>237</v>
+        <v>370</v>
       </c>
       <c r="C341" t="s">
         <v>1</v>
@@ -6077,10 +6075,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>5443</v>
+        <v>4028</v>
       </c>
       <c r="B342" t="s">
-        <v>247</v>
+        <v>371</v>
       </c>
       <c r="C342" t="s">
         <v>1</v>
@@ -6088,10 +6086,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>5444</v>
+        <v>5239</v>
       </c>
       <c r="B343" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="C343" t="s">
         <v>1</v>
@@ -6099,10 +6097,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>5458</v>
+        <v>2409</v>
       </c>
       <c r="B344" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="C344" t="s">
         <v>1</v>
@@ -6110,10 +6108,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>5472</v>
+        <v>3975</v>
       </c>
       <c r="B345" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="C345" t="s">
         <v>1</v>
@@ -6121,10 +6119,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>5474</v>
+        <v>3855</v>
       </c>
       <c r="B346" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="C346" t="s">
         <v>1</v>
@@ -6132,54 +6130,54 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>5494</v>
+        <v>2408</v>
       </c>
       <c r="B347" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C347" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>5498</v>
+        <v>4162</v>
       </c>
       <c r="B348" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C348" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>5501</v>
+        <v>3190</v>
       </c>
       <c r="B349" t="s">
-        <v>143</v>
+        <v>378</v>
       </c>
       <c r="C349" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>5533</v>
+        <v>5494</v>
       </c>
       <c r="B350" t="s">
-        <v>205</v>
+        <v>379</v>
       </c>
       <c r="C350" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>5564</v>
+        <v>5012</v>
       </c>
       <c r="B351" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
       <c r="C351" t="s">
         <v>1</v>
@@ -6187,222 +6185,192 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>5595</v>
+        <v>4044</v>
       </c>
       <c r="B352" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="C352" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>5619</v>
+        <v>3990</v>
       </c>
       <c r="B353" t="s">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="C353" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>5634</v>
+        <v>5498</v>
       </c>
       <c r="B354" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="C354" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>5741</v>
+        <v>4047</v>
       </c>
       <c r="B355" t="s">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="C355" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1571</v>
+      </c>
+      <c r="B356" t="s">
+        <v>385</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3074</v>
+      </c>
+      <c r="B357" t="s">
+        <v>386</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>3749</v>
+      </c>
+      <c r="B358" t="s">
+        <v>387</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1325</v>
+      </c>
+      <c r="B359" t="s">
+        <v>388</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1445</v>
+      </c>
+      <c r="B360" t="s">
+        <v>389</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1566</v>
+      </c>
+      <c r="B361" t="s">
+        <v>390</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>5809</v>
+      </c>
+      <c r="B362" t="s">
+        <v>391</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1323</v>
+      </c>
+      <c r="B363" t="s">
+        <v>392</v>
+      </c>
+      <c r="C363" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>5743</v>
-      </c>
-      <c r="B356" t="s">
-        <v>142</v>
-      </c>
-      <c r="C356" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>5759</v>
-      </c>
-      <c r="B357" t="s">
-        <v>159</v>
-      </c>
-      <c r="C357" t="s">
-        <v>136</v>
-      </c>
-      <c r="D357" t="s">
-        <v>160</v>
-      </c>
-      <c r="E357" t="s">
-        <v>161</v>
-      </c>
-      <c r="F357" t="s">
-        <v>162</v>
-      </c>
-      <c r="G357">
-        <v>120429355</v>
-      </c>
-      <c r="H357" t="s">
-        <v>163</v>
-      </c>
-      <c r="I357">
-        <v>12</v>
-      </c>
-      <c r="J357">
-        <v>85</v>
-      </c>
-      <c r="K357">
-        <v>502</v>
-      </c>
-      <c r="L357">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>5779</v>
-      </c>
-      <c r="B358" t="s">
-        <v>208</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>5797</v>
-      </c>
-      <c r="B359" t="s">
-        <v>260</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>5809</v>
-      </c>
-      <c r="B360" t="s">
-        <v>390</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>5816</v>
-      </c>
-      <c r="B361" t="s">
-        <v>8</v>
-      </c>
-      <c r="C361" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>5825</v>
-      </c>
-      <c r="B362" t="s">
-        <v>47</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>5839</v>
-      </c>
-      <c r="B363" t="s">
-        <v>60</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>5843</v>
+        <v>3500</v>
       </c>
       <c r="B364" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="C364" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>5847</v>
+        <v>1201</v>
       </c>
       <c r="B365" t="s">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="C365" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>5853</v>
+        <v>2531</v>
       </c>
       <c r="B366" t="s">
-        <v>110</v>
+        <v>395</v>
       </c>
       <c r="C366" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>5859</v>
+        <v>4832</v>
       </c>
       <c r="B367" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="C367" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>5866</v>
+        <v>4834</v>
       </c>
       <c r="B368" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="C368" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L370">
-    <sortCondition ref="A2:A370"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>